--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed1/result_data_RandomForest.xlsx
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.723799999999996</v>
+        <v>-6.430699999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1637</v>
+        <v>13.5295</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.08660000000001</v>
+        <v>13.553</v>
       </c>
     </row>
     <row r="6">
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.894200000000001</v>
+        <v>-7.902</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.398899999999994</v>
+        <v>-7.672299999999995</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.45469999999999</v>
+        <v>14.2733</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.874499999999997</v>
+        <v>-7.766899999999995</v>
       </c>
       <c r="E16" t="n">
-        <v>14.0217</v>
+        <v>14.5712</v>
       </c>
     </row>
     <row r="17">
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.913899999999997</v>
+        <v>-8.025699999999995</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.1595</v>
+        <v>13.46339999999999</v>
       </c>
     </row>
     <row r="23">
